--- a/Dashboard/Data/Prueba.xlsx
+++ b/Dashboard/Data/Prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Dashboard2\Dashboard\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\PycharmProjects\InventaryManager\Dashboard\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{650C20A0-5245-40AB-97F4-4E8907832D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ACA0D8-921D-4026-8850-E503ECF6B5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{11F75D46-E8D2-4498-A4BF-502B6E308B41}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{11F75D46-E8D2-4498-A4BF-502B6E308B41}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -110,11 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4FED24-C60E-45BD-8E19-3E29922E2278}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,7 +447,7 @@
     <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -489,10 +490,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>11.55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -515,7 +516,7 @@
         <v>11.12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -538,7 +539,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>8</v>
       </c>
@@ -560,8 +561,9 @@
       <c r="G5">
         <v>11.81</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -584,7 +586,7 @@
         <v>10.220000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -607,7 +609,7 @@
         <v>10.99</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -630,7 +632,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -653,7 +655,7 @@
         <v>10.94</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -676,7 +678,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -699,7 +701,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -722,7 +724,7 @@
         <v>10.24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -745,7 +747,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -768,7 +770,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -791,7 +793,7 @@
         <v>11.17</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -931,5 +933,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>